--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Performance_Tool\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6704FD74-6B14-426E-AFF6-67FBC18652CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BD0A44-18A9-457B-B546-F492F0600C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="1800" windowWidth="22620" windowHeight="10710" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="1755" windowWidth="22620" windowHeight="10710" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="综合办主任" sheetId="4" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -368,6 +368,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,30 +708,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1004,55 +1007,55 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="str">
+      <c r="A25" s="22" t="str">
         <f>"最后评分 : 自评分*10%+直接上级评分*90%=" &amp; SUM(G24*0.1 + H24*0.9)</f>
         <v>最后评分 : 自评分*10%+直接上级评分*90%=0</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1093,30 +1096,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1392,55 +1395,55 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="str">
+      <c r="A25" s="22" t="str">
         <f>"最后评分 : 自评分*10%+直接上级评分*90%=" &amp; SUM(G24*0.1 + H24*0.9)</f>
         <v>最后评分 : 自评分*10%+直接上级评分*90%=0</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1481,30 +1484,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1780,55 +1783,55 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="str">
+      <c r="A25" s="22" t="str">
         <f>"最后评分 : 自评分*10%+直接上级评分*90%=" &amp; SUM(G24*0.1 + H24*0.9)</f>
         <v>最后评分 : 自评分*10%+直接上级评分*90%=0</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1869,30 +1872,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2168,55 +2171,55 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="str">
+      <c r="A25" s="22" t="str">
         <f>"最后评分 : 自评分*10%+直接上级评分*90%=" &amp; SUM(G24*0.1 + H24*0.9)</f>
         <v>最后评分 : 自评分*10%+直接上级评分*90%=0</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2257,30 +2260,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2556,55 +2559,55 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="str">
+      <c r="A25" s="22" t="str">
         <f>"最后评分 : 自评分*10%+直接上级评分*90%=" &amp; SUM(G24*0.1 + H24*0.9)</f>
         <v>最后评分 : 自评分*10%+直接上级评分*90%=0</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2627,7 +2630,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2645,30 +2648,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2700,30 +2703,30 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
@@ -2733,8 +2736,8 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="9"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
@@ -2744,8 +2747,8 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="10"/>
@@ -2755,8 +2758,8 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="10"/>
@@ -2766,19 +2769,19 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="6"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6"/>
       <c r="D11" s="12"/>
       <c r="E11" s="10"/>
@@ -2788,8 +2791,8 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6"/>
       <c r="D12" s="12"/>
       <c r="E12" s="10"/>
@@ -2799,8 +2802,8 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6"/>
       <c r="D13" s="13"/>
       <c r="E13" s="10"/>
@@ -2810,19 +2813,19 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="14"/>
@@ -2832,8 +2835,8 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="14"/>
@@ -2843,19 +2846,18 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="14"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="14"/>
@@ -2865,8 +2867,8 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="14"/>
@@ -2876,8 +2878,8 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="14"/>
@@ -2887,8 +2889,8 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="14"/>
@@ -2898,8 +2900,8 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="14"/>
@@ -2909,8 +2911,8 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="14"/>
@@ -2944,55 +2946,55 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="str">
+      <c r="A25" s="22" t="str">
         <f>"最后评分 : 自评分*10%+直接上级评分*90%=" &amp; SUM(G24*0.1 + H24*0.9)</f>
         <v>最后评分 : 自评分*10%+直接上级评分*90%=0</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
